--- a/dist/data/profiles/xlsx/bluff/profile 35-2 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 35-2 graph.xlsx
@@ -19552,11 +19552,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="24665043"/>
-        <c:axId val="48404320"/>
+        <c:axId val="14286656"/>
+        <c:axId val="83562711"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="24665043"/>
+        <c:axId val="14286656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19591,12 +19591,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48404320"/>
+        <c:crossAx val="83562711"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48404320"/>
+        <c:axId val="83562711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19640,7 +19640,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24665043"/>
+        <c:crossAx val="14286656"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
